--- a/experiments/src/nonlinear_regression_experiment_average_error_mean.xlsx
+++ b/experiments/src/nonlinear_regression_experiment_average_error_mean.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caleb P. Nwokocha\OneDrive - University of Manitoba\Documents\personal_projects\my_ai\research_doc\comprehensive_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA09099B-B9D7-4D2C-BE2A-76823BA63985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B6B0D-0F71-43EA-AC6C-62B4CBC2F29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F046D8E-F4BE-4FE6-A763-CFAA12FF2816}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,9 +74,6 @@
     <t>Arithmetic Mean of TrainEM of all tasks.</t>
   </si>
   <si>
-    <t>TRAINING ERROR MEAN (TestEM)</t>
-  </si>
-  <si>
     <t>Test #</t>
   </si>
   <si>
@@ -111,6 +105,9 @@
   </si>
   <si>
     <t>Arithmetic Mean of TestEM of all tasks.</t>
+  </si>
+  <si>
+    <t>TESTING ERROR MEAN (TestEM)</t>
   </si>
 </sst>
 </file>
@@ -2310,160 +2307,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>1.7396800401150341</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="K4">
-            <v>0.20751154274173844</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>0.20861058240408398</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>0.208416541737074</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>0.20902896455550979</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>0.19695282503390732</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9">
-            <v>0.1972297801122869</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="K19">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="K20">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="K21">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="K22">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="K23">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="K24">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="K25">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="K26">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="K27">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="K28">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="K29">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="K30">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="K31">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="K32">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="K33">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="K34">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="K35">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="K36">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="K37">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="K38">
-            <v>0.19747258215567601</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2764,7 +2607,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3112,7 +2955,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3126,37 +2969,37 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>19</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>21</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>22</v>
-      </c>
-      <c r="K18" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4119,18 +3962,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4153,14 +3996,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4C334D5-C9C5-415A-93DC-1D8EA9E54487}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D7CE51-4C52-427F-ADB2-D34D1B3F9A62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4175,4 +4010,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4C334D5-C9C5-415A-93DC-1D8EA9E54487}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/experiments/src/nonlinear_regression_experiment_average_error_mean.xlsx
+++ b/experiments/src/nonlinear_regression_experiment_average_error_mean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caleb P. Nwokocha\OneDrive - University of Manitoba\Documents\personal_projects\my_ai\research_doc\comprehensive_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B6B0D-0F71-43EA-AC6C-62B4CBC2F29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868572F1-1005-4F03-A648-A3ADE79FB9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F046D8E-F4BE-4FE6-A763-CFAA12FF2816}"/>
   </bookViews>
@@ -505,7 +505,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> error-men</a:t>
+                  <a:t> error-mean</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-CA">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -996,7 +996,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t> error-men</a:t>
+                  <a:t> error-mean</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-CA">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2606,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07242F9-E2D4-4CF0-BC82-E217C08234AB}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J17"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3962,18 +3962,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3996,6 +3996,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4C334D5-C9C5-415A-93DC-1D8EA9E54487}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D7CE51-4C52-427F-ADB2-D34D1B3F9A62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4010,12 +4018,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4C334D5-C9C5-415A-93DC-1D8EA9E54487}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/experiments/src/nonlinear_regression_experiment_average_error_mean.xlsx
+++ b/experiments/src/nonlinear_regression_experiment_average_error_mean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caleb P. Nwokocha\OneDrive - University of Manitoba\Documents\personal_projects\my_ai\research_doc\comprehensive_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868572F1-1005-4F03-A648-A3ADE79FB9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E6E79-98FF-4135-BC6F-3424C705FCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F046D8E-F4BE-4FE6-A763-CFAA12FF2816}"/>
   </bookViews>
@@ -249,7 +249,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -264,7 +264,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -707,7 +707,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -722,7 +722,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2606,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07242F9-E2D4-4CF0-BC82-E217C08234AB}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="28" zoomScaleNormal="28" workbookViewId="0">
+      <selection activeCell="BG95" sqref="BG95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3962,18 +3962,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3996,14 +3996,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4C334D5-C9C5-415A-93DC-1D8EA9E54487}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4D7CE51-4C52-427F-ADB2-D34D1B3F9A62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4018,4 +4010,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4C334D5-C9C5-415A-93DC-1D8EA9E54487}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>